--- a/courses-lach.xlsx
+++ b/courses-lach.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>S No.</t>
   </si>
@@ -92,6 +92,54 @@
   </si>
   <si>
     <t>Sociology and Political Philosophy</t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Introduction to Media in Society: A Public Sphere Approach</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>Introduction to Social Informatics</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>Social and Political Philosophy</t>
+  </si>
+  <si>
+    <t>12)</t>
+  </si>
+  <si>
+    <t>Applied Ethics</t>
+  </si>
+  <si>
+    <t>13)</t>
+  </si>
+  <si>
+    <t>Perspectives on Knowledge</t>
+  </si>
+  <si>
+    <t>14)</t>
+  </si>
+  <si>
+    <t>Comparative Politics in the Digital Era</t>
+  </si>
+  <si>
+    <t>15)</t>
+  </si>
+  <si>
+    <t>Philosophy of Technology</t>
+  </si>
+  <si>
+    <t>16)</t>
+  </si>
+  <si>
+    <t>Theory and Practice of Engineering Ethics</t>
   </si>
   <si>
     <t>YASH CHAUDHARY</t>
@@ -178,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -189,11 +237,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -517,201 +569,229 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6">
+      <c r="A49" s="8">
         <v>52.0</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="B49" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
@@ -1655,10 +1735,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>

--- a/courses-lach.xlsx
+++ b/courses-lach.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>S No.</t>
   </si>
@@ -40,15 +40,6 @@
     <t>Introduction to Philosophy</t>
   </si>
   <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>https://iiitd.ac.in/courserepo/course-full-description.php?course_number=SSH124</t>
-  </si>
-  <si>
-    <t>Critical Thinking</t>
-  </si>
-  <si>
     <t>4)</t>
   </si>
   <si>
@@ -58,33 +49,6 @@
     <t xml:space="preserve">Research Methods in Social Science </t>
   </si>
   <si>
-    <t>5)</t>
-  </si>
-  <si>
-    <t>https://iiitd.ac.in/courserepo/course-full-description.php?course_number=SSH211</t>
-  </si>
-  <si>
-    <t>Theatre Application</t>
-  </si>
-  <si>
-    <t>6)</t>
-  </si>
-  <si>
-    <t>https://iiitd.ac.in/courserepo/course-full-description.php?course_number=SSH214</t>
-  </si>
-  <si>
-    <t>Introduction to The Study of Literature</t>
-  </si>
-  <si>
-    <t>7)</t>
-  </si>
-  <si>
-    <t>https://iiitd.ac.in/courserepo/course-full-description.php?course_number=SSH216</t>
-  </si>
-  <si>
-    <t>Introduction to Indian Mythology</t>
-  </si>
-  <si>
     <t>8)</t>
   </si>
   <si>
@@ -104,12 +68,6 @@
   </si>
   <si>
     <t>Introduction to Social Informatics</t>
-  </si>
-  <si>
-    <t>11)</t>
-  </si>
-  <si>
-    <t>Social and Political Philosophy</t>
   </si>
   <si>
     <t>12)</t>
@@ -226,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -238,14 +196,11 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -528,266 +483,218 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="7">
+        <v>52.0</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8">
-        <v>48.0</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8">
-        <v>49.0</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="8">
-        <v>51.0</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="8">
-        <v>52.0</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    </row>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
     <row r="52" ht="15.75" customHeight="1"/>
@@ -1734,18 +1641,13 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B4"/>
     <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/courses-lach.xlsx
+++ b/courses-lach.xlsx
@@ -55,7 +55,7 @@
     <t>https://iiitd.ac.in/courserepo/course-full-description.php?course_number=SSH221</t>
   </si>
   <si>
-    <t>Sociology and Political Philosophy</t>
+    <t>Social and Political Philosophy</t>
   </si>
   <si>
     <t>9)</t>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -137,6 +137,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -184,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -196,13 +200,16 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -475,7 +482,7 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -483,8 +490,8 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -492,8 +499,8 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -501,8 +508,8 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -510,8 +517,8 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -519,8 +526,8 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -528,8 +535,8 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -537,156 +544,156 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>48.0</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>49.0</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>50.0</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>51.0</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>52.0</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>33</v>
       </c>
     </row>
